--- a/src/test/resources/template.xlsx
+++ b/src/test/resources/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="11655"/>
+    <workbookView windowWidth="20625" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
   </si>
@@ -40,10 +40,19 @@
     <t>地址</t>
   </si>
   <si>
-    <t>{name}</t>
+    <t>注册日期</t>
   </si>
   <si>
-    <t>{age}</t>
+    <t>{.name}</t>
+  </si>
+  <si>
+    <t>{.age}</t>
+  </si>
+  <si>
+    <t>{.address}</t>
+  </si>
+  <si>
+    <t>{.time}</t>
   </si>
 </sst>
 </file>
@@ -974,15 +983,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -992,16 +1001,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
